--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件其他结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件其他结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12585</v>
+        <v>8052</v>
       </c>
       <c r="C2" t="n">
-        <v>1033</v>
+        <v>340</v>
       </c>
       <c r="D2" t="n">
-        <v>20778</v>
+        <v>11937</v>
       </c>
       <c r="E2" t="n">
-        <v>10634</v>
+        <v>10310</v>
       </c>
       <c r="F2" t="n">
-        <v>858</v>
+        <v>582</v>
       </c>
       <c r="G2" t="n">
-        <v>1525</v>
+        <v>6999</v>
       </c>
       <c r="H2" t="n">
-        <v>55602</v>
+        <v>44850</v>
       </c>
       <c r="I2" t="n">
-        <v>1375</v>
+        <v>1980</v>
       </c>
       <c r="J2" t="n">
-        <v>1446</v>
+        <v>1305</v>
       </c>
       <c r="K2" t="n">
-        <v>1181</v>
+        <v>1349</v>
       </c>
       <c r="L2" t="n">
-        <v>2775</v>
+        <v>472</v>
       </c>
       <c r="M2" t="n">
-        <v>1412</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12895</v>
+        <v>7692</v>
       </c>
       <c r="C3" t="n">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="D3" t="n">
-        <v>21891</v>
+        <v>12277</v>
       </c>
       <c r="E3" t="n">
-        <v>9131</v>
+        <v>11485</v>
       </c>
       <c r="F3" t="n">
-        <v>1435</v>
+        <v>279</v>
       </c>
       <c r="G3" t="n">
-        <v>2139</v>
+        <v>5591</v>
       </c>
       <c r="H3" t="n">
-        <v>58841</v>
+        <v>47326</v>
       </c>
       <c r="I3" t="n">
-        <v>1476</v>
+        <v>1943</v>
       </c>
       <c r="J3" t="n">
-        <v>1723</v>
+        <v>2896</v>
       </c>
       <c r="K3" t="n">
-        <v>1342</v>
+        <v>1317</v>
       </c>
       <c r="L3" t="n">
-        <v>4461</v>
+        <v>1594</v>
       </c>
       <c r="M3" t="n">
-        <v>1497</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12639</v>
+        <v>8199</v>
       </c>
       <c r="C4" t="n">
-        <v>514</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>16011</v>
+        <v>16339</v>
       </c>
       <c r="E4" t="n">
-        <v>8847</v>
+        <v>14867</v>
       </c>
       <c r="F4" t="n">
-        <v>1283</v>
+        <v>187</v>
       </c>
       <c r="G4" t="n">
-        <v>2566</v>
+        <v>6446</v>
       </c>
       <c r="H4" t="n">
-        <v>53828</v>
+        <v>55684</v>
       </c>
       <c r="I4" t="n">
-        <v>1634</v>
+        <v>2255</v>
       </c>
       <c r="J4" t="n">
-        <v>2090</v>
+        <v>3053</v>
       </c>
       <c r="K4" t="n">
-        <v>1555</v>
+        <v>1269</v>
       </c>
       <c r="L4" t="n">
-        <v>5138</v>
+        <v>1071</v>
       </c>
       <c r="M4" t="n">
-        <v>1551</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11796</v>
+        <v>10538</v>
       </c>
       <c r="C5" t="n">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="D5" t="n">
-        <v>12613</v>
+        <v>21907</v>
       </c>
       <c r="E5" t="n">
-        <v>9994</v>
+        <v>14629</v>
       </c>
       <c r="F5" t="n">
-        <v>974</v>
+        <v>667</v>
       </c>
       <c r="G5" t="n">
-        <v>2861</v>
+        <v>7153</v>
       </c>
       <c r="H5" t="n">
-        <v>49726</v>
+        <v>65133</v>
       </c>
       <c r="I5" t="n">
-        <v>1786</v>
+        <v>2984</v>
       </c>
       <c r="J5" t="n">
-        <v>1910</v>
+        <v>2468</v>
       </c>
       <c r="K5" t="n">
-        <v>1776</v>
+        <v>1573</v>
       </c>
       <c r="L5" t="n">
-        <v>3878</v>
+        <v>977</v>
       </c>
       <c r="M5" t="n">
-        <v>1689</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9841</v>
+        <v>11778</v>
       </c>
       <c r="C6" t="n">
-        <v>306</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>11458</v>
+        <v>26016</v>
       </c>
       <c r="E6" t="n">
-        <v>7779</v>
+        <v>16989</v>
       </c>
       <c r="F6" t="n">
-        <v>860</v>
+        <v>218</v>
       </c>
       <c r="G6" t="n">
-        <v>2883</v>
+        <v>8110</v>
       </c>
       <c r="H6" t="n">
-        <v>42652</v>
+        <v>75878</v>
       </c>
       <c r="I6" t="n">
-        <v>1723</v>
+        <v>3606</v>
       </c>
       <c r="J6" t="n">
-        <v>1575</v>
+        <v>4326</v>
       </c>
       <c r="K6" t="n">
-        <v>1516</v>
+        <v>1871</v>
       </c>
       <c r="L6" t="n">
-        <v>3150</v>
+        <v>324</v>
       </c>
       <c r="M6" t="n">
-        <v>1561</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9119</v>
+        <v>16204</v>
       </c>
       <c r="C7" t="n">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="D7" t="n">
-        <v>20943</v>
+        <v>39059</v>
       </c>
       <c r="E7" t="n">
-        <v>9491</v>
+        <v>25357</v>
       </c>
       <c r="F7" t="n">
-        <v>530</v>
+        <v>307</v>
       </c>
       <c r="G7" t="n">
-        <v>3121</v>
+        <v>12611</v>
       </c>
       <c r="H7" t="n">
-        <v>53323</v>
+        <v>110552</v>
       </c>
       <c r="I7" t="n">
-        <v>1863</v>
+        <v>5979</v>
       </c>
       <c r="J7" t="n">
-        <v>1885</v>
+        <v>5121</v>
       </c>
       <c r="K7" t="n">
-        <v>1710</v>
+        <v>1949</v>
       </c>
       <c r="L7" t="n">
-        <v>2932</v>
+        <v>221</v>
       </c>
       <c r="M7" t="n">
-        <v>1414</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10066</v>
+        <v>16659</v>
       </c>
       <c r="C8" t="n">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D8" t="n">
-        <v>14675</v>
+        <v>38333</v>
       </c>
       <c r="E8" t="n">
-        <v>10812</v>
+        <v>32102</v>
       </c>
       <c r="F8" t="n">
-        <v>540</v>
+        <v>799</v>
       </c>
       <c r="G8" t="n">
-        <v>6618</v>
+        <v>13698</v>
       </c>
       <c r="H8" t="n">
-        <v>53124</v>
+        <v>116328</v>
       </c>
       <c r="I8" t="n">
-        <v>1951</v>
+        <v>4584</v>
       </c>
       <c r="J8" t="n">
-        <v>2494</v>
+        <v>4354</v>
       </c>
       <c r="K8" t="n">
-        <v>1833</v>
+        <v>1919</v>
       </c>
       <c r="L8" t="n">
-        <v>2224</v>
+        <v>233</v>
       </c>
       <c r="M8" t="n">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10561</v>
-      </c>
-      <c r="C9" t="n">
-        <v>358</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12657</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10040</v>
-      </c>
-      <c r="F9" t="n">
-        <v>531</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7260</v>
-      </c>
-      <c r="H9" t="n">
-        <v>49482</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2099</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1786</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L9" t="n">
-        <v>615</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8052</v>
-      </c>
-      <c r="C10" t="n">
-        <v>340</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11937</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10310</v>
-      </c>
-      <c r="F10" t="n">
-        <v>582</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>44850</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1980</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1305</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1349</v>
-      </c>
-      <c r="L10" t="n">
-        <v>472</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7692</v>
-      </c>
-      <c r="C11" t="n">
-        <v>831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12277</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11485</v>
-      </c>
-      <c r="F11" t="n">
-        <v>279</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>47326</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1943</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2896</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1317</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1594</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8199</v>
-      </c>
-      <c r="C12" t="n">
-        <v>77</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16339</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14867</v>
-      </c>
-      <c r="F12" t="n">
-        <v>187</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6446</v>
-      </c>
-      <c r="H12" t="n">
-        <v>55684</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2255</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3053</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1269</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1071</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10538</v>
-      </c>
-      <c r="C13" t="n">
-        <v>99</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21907</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14629</v>
-      </c>
-      <c r="F13" t="n">
-        <v>667</v>
-      </c>
-      <c r="G13" t="n">
-        <v>7153</v>
-      </c>
-      <c r="H13" t="n">
-        <v>65133</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2984</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2468</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1573</v>
-      </c>
-      <c r="L13" t="n">
-        <v>977</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11778</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26016</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16989</v>
-      </c>
-      <c r="F14" t="n">
-        <v>218</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8110</v>
-      </c>
-      <c r="H14" t="n">
-        <v>75878</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3606</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4326</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1871</v>
-      </c>
-      <c r="L14" t="n">
-        <v>324</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>16204</v>
-      </c>
-      <c r="C15" t="n">
-        <v>241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>39059</v>
-      </c>
-      <c r="E15" t="n">
-        <v>25357</v>
-      </c>
-      <c r="F15" t="n">
-        <v>307</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12611</v>
-      </c>
-      <c r="H15" t="n">
-        <v>110552</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5979</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5121</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1949</v>
-      </c>
-      <c r="L15" t="n">
-        <v>221</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16659</v>
-      </c>
-      <c r="C16" t="n">
-        <v>202</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38333</v>
-      </c>
-      <c r="E16" t="n">
-        <v>32102</v>
-      </c>
-      <c r="F16" t="n">
-        <v>799</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13698</v>
-      </c>
-      <c r="H16" t="n">
-        <v>116328</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4584</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4354</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1919</v>
-      </c>
-      <c r="L16" t="n">
-        <v>233</v>
-      </c>
-      <c r="M16" t="n">
         <v>3445</v>
       </c>
     </row>
